--- a/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB8466-2D38-47B9-B78C-9E174A51BA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$I$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -110,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">API or NON API Products:  </t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Fumigation with Certificate if required:</t>
@@ -225,14 +228,14 @@
   <si>
     <t xml:space="preserve">#ConsignmentLocation </t>
   </si>
+  <si>
+    <t>#APINonAPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -704,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,9 +796,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,12 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,23 +933,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,108 +989,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>367242</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>203197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>433917</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>307972</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="367030" y="7613015"/>
-          <a:ext cx="66675" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>383381</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>189176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450056</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>293951</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="382905" y="8113395"/>
-          <a:ext cx="66675" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1091,7 +1013,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22591" name="Picture 7" descr="NEW MOT LOGO 11"/>
+        <xdr:cNvPr id="22591" name="Picture 7" descr="NEW MOT LOGO 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F580000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1117,54 +1045,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>191822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>296597</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="356870" y="8630920"/>
-          <a:ext cx="66675" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1515,14 +1395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1428,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1565,7 +1445,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="63"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
@@ -1578,7 +1458,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="64"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -1595,7 +1475,7 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="62" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1604,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="75" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="19"/>
@@ -1614,7 +1494,7 @@
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1631,7 +1511,7 @@
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="65"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
@@ -1648,9 +1528,9 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
@@ -1667,8 +1547,8 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
@@ -1679,14 +1559,14 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="77" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
@@ -1703,8 +1583,8 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
@@ -1721,8 +1601,8 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
@@ -1734,14 +1614,14 @@
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
@@ -1758,8 +1638,8 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -1776,9 +1656,9 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
-      <c r="L14" s="69"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
@@ -1795,9 +1675,9 @@
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
-      <c r="L15" s="69"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
@@ -1809,272 +1689,301 @@
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="27" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="L16" s="69"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-      <c r="L17" s="69"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>12</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="L18" s="69"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="L19" s="69"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="D20" s="88"/>
+      <c r="E20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="32" t="s">
+      <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="H20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="I20" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="70" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="82"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="82"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="67"/>
+    </row>
+    <row r="23" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="82"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="67"/>
+    </row>
+    <row r="24" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="83"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="69"/>
+    </row>
+    <row r="26" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="85" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="72"/>
-    </row>
-    <row r="23" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="27" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="27" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="66"/>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="45" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="71"/>
+    </row>
+    <row r="30" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
-    </row>
-    <row r="27" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="72"/>
+    </row>
+    <row r="31" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="75"/>
-    </row>
-    <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52" t="s">
+      <c r="D31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="E31" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="F31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="G31" s="51"/>
+      <c r="H31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55" t="s">
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="76"/>
-    </row>
-    <row r="29" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="77"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="74"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.23622047244094499" top="0.196850393700787" bottom="0.23622047244094499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="2" orientation="portrait" r:id="rId1"/>

--- a/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB8466-2D38-47B9-B78C-9E174A51BA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BCB1FF-8B15-4B9A-BE51-88133DA02333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -299,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -609,19 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -707,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +750,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,9 +762,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -790,9 +771,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -827,9 +805,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -860,9 +835,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -872,28 +844,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -905,26 +874,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,12 +933,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,25 +1364,24 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1427,12 +1389,11 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="59" t="s">
+      <c r="H1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1444,10 +1405,9 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -1457,10 +1417,9 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="61"/>
-    </row>
-    <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1468,489 +1427,464 @@
       <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="62" t="s">
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="62" t="s">
+      <c r="H5" s="56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="15" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
         <v>1</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="77" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
         <v>6</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
         <v>7</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="27" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
         <v>8</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="27" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
         <v>9</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="27" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
-      <c r="L15" s="66"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="60"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
         <v>10</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="27" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="L16" s="66"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>11</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="27" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="L17" s="66"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>12</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="L18" s="66"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>13</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="L19" s="66"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="H20" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="67"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="67"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="67"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="68"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="69"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="85" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="63"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="81" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="63"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="81" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="63"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="42" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="71"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="72"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52" t="s">
+      <c r="G31" s="47"/>
+      <c r="H31" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1959,9 +1893,8 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1970,9 +1903,8 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1981,7 +1913,6 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1989,7 +1920,7 @@
   <pageSetup paperSize="9" scale="58" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
+    <brk id="9" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BCB1FF-8B15-4B9A-BE51-88133DA02333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798CCA1D-BA49-48A8-A448-15761A9A7AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve"> MOT/F/SM/03 Rev.04</t>
   </si>
@@ -37,22 +37,10 @@
     <t>Work Authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">File Number : </t>
-  </si>
-  <si>
-    <t>#FileNo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Work Authorization No. &amp; Rev. No. : </t>
   </si>
   <si>
     <t xml:space="preserve">#WAuthNo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible person </t>
-  </si>
-  <si>
-    <t>#SalesPerson</t>
   </si>
   <si>
     <t xml:space="preserve">Work Authorization Issue Date       : </t>
@@ -204,9 +192,6 @@
     <t>Acknowledgement &amp; Distributed To:</t>
   </si>
   <si>
-    <t>Department :</t>
-  </si>
-  <si>
     <t xml:space="preserve">     D &amp; D</t>
   </si>
   <si>
@@ -230,13 +215,22 @@
   </si>
   <si>
     <t>#APINonAPI</t>
+  </si>
+  <si>
+    <t>File Number :  #FileNo</t>
+  </si>
+  <si>
+    <t>Responsible person  : #SalesPerson</t>
+  </si>
+  <si>
+    <t>Dept.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -274,12 +268,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -694,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +747,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,9 +756,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,9 +768,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,9 +781,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -823,9 +799,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -896,10 +869,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,9 +881,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,17 +890,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,38 +1326,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1404,10 +1366,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -1416,475 +1377,440 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="56" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
-        <v>1</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="25" t="s">
+      <c r="C9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>2</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>3</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="71" t="s">
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="25" t="s">
+      <c r="C12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="25" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>6</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>9</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>7</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="25" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>8</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="C16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>11</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="K14" s="60"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>9</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="25" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="K15" s="60"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
-        <v>10</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="K16" s="60"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <v>11</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>13</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="K17" s="60"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <v>12</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="25" t="s">
+      <c r="B20" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-      <c r="K18" s="60"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
-        <v>13</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="25" t="s">
+      <c r="D20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="K19" s="60"/>
-    </row>
-    <row r="20" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="42" t="s">
+      <c r="F20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="G20" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="29" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="52"/>
+    </row>
+    <row r="27" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="52"/>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="61"/>
-    </row>
-    <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="61"/>
-    </row>
-    <row r="23" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="76"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="61"/>
-    </row>
-    <row r="24" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="79" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="57"/>
-    </row>
-    <row r="27" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="75" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="57"/>
-    </row>
-    <row r="28" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="75" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="57"/>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="C31" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="38" t="s">
+      <c r="D31" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-    </row>
-    <row r="30" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="E31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="65"/>
-    </row>
-    <row r="31" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45" t="s">
+      <c r="H31" s="60"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="60"/>
+    </row>
+    <row r="32" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="65"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="65"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1892,9 +1818,8 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1902,9 +1827,8 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1912,7 +1836,6 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1920,7 +1843,7 @@
   <pageSetup paperSize="9" scale="58" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
+    <brk id="8" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/WorkAuthReports1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798CCA1D-BA49-48A8-A448-15761A9A7AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A10421-2E09-44E6-9279-5BC6F89546E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>MACKERAL OIL TOOLS PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>Work Authorization</t>
   </si>
   <si>
@@ -145,12 +142,57 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>Special Instructions if Any :</t>
+  </si>
+  <si>
+    <t>Prepared by: Marketing Department (Sign &amp; Date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved by: Director (Sign &amp; Date) 
+</t>
+  </si>
+  <si>
+    <t>Acknowledgement &amp; Distributed To:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     D &amp; D</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Production &amp; Assembly</t>
+  </si>
+  <si>
+    <t>Store &amp; Dispatch</t>
+  </si>
+  <si>
+    <t>Received by
+(Sign &amp; Date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ConsignmentLocation </t>
+  </si>
+  <si>
+    <t>#APINonAPI</t>
+  </si>
+  <si>
+    <t>File Number :  #FileNo</t>
+  </si>
+  <si>
+    <t>Responsible person  : #SalesPerson</t>
+  </si>
+  <si>
+    <t>Dept.</t>
+  </si>
+  <si>
+    <t>SledgeHammer Oil Tools Pvt. Ltd.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">Packing Type : </t>
     </r>
     <r>
@@ -158,16 +200,11 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>As per Mackeral procedure MOT/QSP/18 or as per customer requirement.</t>
+      <t>As per SledgeHammer procedure MOT/QSP/18 or as per customer requirement.</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">Marking: </t>
     </r>
     <r>
@@ -175,55 +212,8 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>As per Mackeral procedure MOT/QSP/29 or as per customer requirement.</t>
+      <t>As per SledgeHammer procedure MOT/QSP/29 or as per customer requirement.</t>
     </r>
-  </si>
-  <si>
-    <t>Special Instructions if Any :</t>
-  </si>
-  <si>
-    <t>Prepared by: Marketing Department (Sign &amp; Date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved by: Director (Sign &amp; Date) 
-</t>
-  </si>
-  <si>
-    <t>Acknowledgement &amp; Distributed To:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     D &amp; D</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Production &amp; Assembly</t>
-  </si>
-  <si>
-    <t>Store &amp; Dispatch</t>
-  </si>
-  <si>
-    <t>Received by
-(Sign &amp; Date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ConsignmentLocation </t>
-  </si>
-  <si>
-    <t>#APINonAPI</t>
-  </si>
-  <si>
-    <t>File Number :  #FileNo</t>
-  </si>
-  <si>
-    <t>Responsible person  : #SalesPerson</t>
-  </si>
-  <si>
-    <t>Dept.</t>
   </si>
 </sst>
 </file>
@@ -928,48 +918,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>56029</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37465</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1427629</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>314960</xdr:rowOff>
+      <xdr:rowOff>280147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22591" name="Picture 7" descr="NEW MOT LOGO 11">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F580000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A489937F-D61D-4EDE-AC5A-01A44DD3E132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
-        <a:srcRect r="85490"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28575" y="332740"/>
-          <a:ext cx="790575" cy="696595"/>
+          <a:off x="56029" y="324970"/>
+          <a:ext cx="2212041" cy="661148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1329,7 +1331,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1371,7 +1373,7 @@
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1381,42 +1383,42 @@
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1427,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -1444,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
@@ -1460,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -1476,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -1492,10 +1494,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -1508,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -1525,10 +1527,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
@@ -1541,10 +1543,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -1558,10 +1560,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
@@ -1575,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -1592,10 +1594,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
@@ -1609,10 +1611,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
@@ -1626,10 +1628,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
@@ -1640,25 +1642,25 @@
     </row>
     <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="56" t="s">
         <v>38</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,7 +1711,7 @@
     <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="71" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -1720,7 +1722,7 @@
     <row r="27" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="68" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -1731,7 +1733,7 @@
     <row r="28" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -1741,12 +1743,12 @@
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -1755,7 +1757,7 @@
     </row>
     <row r="30" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="38"/>
@@ -1767,23 +1769,23 @@
     </row>
     <row r="31" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>49</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="3"/>
@@ -1791,7 +1793,7 @@
     </row>
     <row r="32" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="45"/>
